--- a/IPS/Relevamiento arch Fuentes/GMAEADMI.xlsx
+++ b/IPS/Relevamiento arch Fuentes/GMAEADMI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>GMAEADMI</t>
   </si>
@@ -25,27 +25,98 @@
   </si>
   <si>
     <t>905 - 911</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Fue Jerarquico en Vialidad y tambien 10430 . Se deben correr ambos cargos y si el jerarquico 
- lo supera se determina en el proceso CAL-VIAL (es un proceso que existe luego del GMAEBASE)  el agregado de un concepto 1 J en el cargo de Administracion.</t>
-  </si>
-  <si>
-    <t>Tipo de Cálculo</t>
   </si>
   <si>
     <t>Comparacion entre Cargos 
 para obtener diferencia a favor</t>
+  </si>
+  <si>
+    <t>83 - 643</t>
+  </si>
+  <si>
+    <t>Definicion de tablas auxiliares para: Antigüedad, Tabla de puntos para la bonif de vivienda,
+tabla de valores p/la boni de vivienda de 1000 o 1200 Res5602/09, tabla para CONTADURIA Y TESORERIA , Bonificacion dto.169/2003  de FISCALIA , tabla mar/09 para Grafico</t>
+  </si>
+  <si>
+    <t>Fue Jerarquico en Vialidad y tambien 10430 . Se deben correr ambos cargos y si el jerarquico 
+ lo supera se determina en el proceso CAL-VIAL (es un proceso que corre luego del GMAEBASE) con el agregado de un concepto 1 J en el cargo de Administracion.</t>
+  </si>
+  <si>
+    <t>Busqueda en tabla 
+de referencia</t>
+  </si>
+  <si>
+    <t>913 - 944</t>
+  </si>
+  <si>
+    <t>son las que trsladan porcentaje de calculo de boni</t>
+  </si>
+  <si>
+    <t>900 - 903</t>
+  </si>
+  <si>
+    <t>MASIVO POR GRUPO PENSIONARIO CON P ************</t>
+  </si>
+  <si>
+    <t>Descrip. Cálculo</t>
+  </si>
+  <si>
+    <t>Observaciones del Relevamiento</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Comentarios del código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analista </t>
+  </si>
+  <si>
+    <t>agregado 7-6-05   solo para adecuaciones en linea
+      *  DISPLAY 'ingresa ' NRO ' ' CODIGO  ' ' MARCA-MASI.
+      * MASIVO POR ERROR EN ANIOS O PORCENTAJE PARA VIALIDAD *****</t>
+  </si>
+  <si>
+    <t>950 - 960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ********     OJO  AMPARO instalado el 28-09-07 
+   ********        PEDIDO : 11097     del 5-7-16</t>
+  </si>
+  <si>
+    <t>Excepcion especifica para un nro de beneficio.</t>
+  </si>
+  <si>
+    <t>Reemplazo de % Beneficio
+ y Antigüedad</t>
+  </si>
+  <si>
+    <t>962 - 1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * OJO  AMPARO instalado el 28-09-07 ***
+   ********IF MARCA = '1' AND NRO = '7017872740' AND 
+  *********                               FECHA-MES &gt; '200710'
+   **********      THEN MOVE 100 TO PORC.
+   ********     OJO  AMPARO instalado el 28-09-07 ******************
+  *******************************   dado de baja 2015
+</t>
+  </si>
+  <si>
+    <t>Si es Vialidad  y las posiciones 11-12 o 13-14 son 
+NO numericos ó  '00' .  Se les pone la marca de MASIVO.
+Esta marca los identifica para considerarlos fuera de calculo.  
+En estas posiciones van datos numericos imprescindibles
+ para que un cargo entre a proceso(%Antiguedad, % de Beneficio).
+Por el ELSE hace otros controles para determinar lo mismo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,16 +124,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,13 +155,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -373,41 +477,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="90">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="90">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="166.5" customHeight="1">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
